--- a/data/trans_orig/P16B12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B12-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E70156F-D12C-4601-A6D4-BF7D27F813B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54401D92-5BDA-442E-AAF5-740097AB7BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34FC0283-98BB-448C-86D5-0820761596AD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{607E34BC-83CD-4E33-96DD-BDDCE03183DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="181">
   <si>
     <t>Porcentaje de mecicinas para la diabetes recetados en 2007 (Tasa respuesta: 5,99%)</t>
   </si>
@@ -118,7 +118,7 @@
     <t>91,01%</t>
   </si>
   <si>
-    <t>56,18%</t>
+    <t>58,73%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -127,13 +127,13 @@
     <t>94,18%</t>
   </si>
   <si>
-    <t>71,42%</t>
+    <t>75,31%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>43,82%</t>
+    <t>41,27%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -142,7 +142,7 @@
     <t>5,82%</t>
   </si>
   <si>
-    <t>28,58%</t>
+    <t>24,69%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -172,19 +172,19 @@
     <t>96,06%</t>
   </si>
   <si>
-    <t>87,87%</t>
+    <t>86,47%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>89,3%</t>
+    <t>89,26%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>92,04%</t>
+    <t>91,92%</t>
   </si>
   <si>
     <t>99,04%</t>
@@ -193,13 +193,13 @@
     <t>3,94%</t>
   </si>
   <si>
-    <t>12,13%</t>
+    <t>13,53%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>10,7%</t>
+    <t>10,74%</t>
   </si>
   <si>
     <t>3,32%</t>
@@ -208,7 +208,7 @@
     <t>0,96%</t>
   </si>
   <si>
-    <t>7,96%</t>
+    <t>8,08%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -217,382 +217,370 @@
     <t>99,17%</t>
   </si>
   <si>
-    <t>95,38%</t>
+    <t>95,8%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>92,39%</t>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de mecicinas para la diabetes recetados en 2012 (Tasa respuesta: 7,85%)</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>Porcentaje de mecicinas para la diabetes recetados en 2015 (Tasa respuesta: 7,89%)</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2012 (Tasa respuesta: 7,85%)</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2015 (Tasa respuesta: 7,89%)</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,92%</t>
+    <t>1,65%</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2301EF63-A538-4F9B-A0AB-176E173C7E4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9ADE26D-2369-4BAE-A329-8E70A7094A35}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2217,7 +2205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1754273-7B48-43E2-B4D3-FD95CFA8DC04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7346EEF-7AB3-46BA-903F-B262041749F5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3274,7 +3262,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -3286,10 +3274,10 @@
         <v>297969</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -3301,10 +3289,10 @@
         <v>546173</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -3328,7 +3316,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3337,13 +3325,13 @@
         <v>2017</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -3352,13 +3340,13 @@
         <v>2017</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,7 +3424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CB6D27-14EE-419C-B0CC-FE83725C0B7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F19B8FB-44D5-43F3-8F48-B735BF440A1C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4329,10 +4317,10 @@
         <v>171608</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -4344,10 +4332,10 @@
         <v>184749</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -4362,7 +4350,7 @@
         <v>166</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4380,7 +4368,7 @@
         <v>955</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
@@ -4401,7 +4389,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4410,13 +4398,13 @@
         <v>2259</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,10 +4472,10 @@
         <v>278002</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -4499,10 +4487,10 @@
         <v>272031</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -4514,13 +4502,13 @@
         <v>550032</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4523,13 @@
         <v>2284</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -4550,13 +4538,13 @@
         <v>1304</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -4565,13 +4553,13 @@
         <v>3589</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B12-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54401D92-5BDA-442E-AAF5-740097AB7BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{010E66EF-3377-46EB-8A82-6B9A762E8C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{607E34BC-83CD-4E33-96DD-BDDCE03183DA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{053EFEC0-7C78-4AC9-9E3E-96F41D208EFC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="187">
   <si>
     <t>Porcentaje de mecicinas para la diabetes recetados en 2007 (Tasa respuesta: 5,99%)</t>
   </si>
@@ -118,7 +118,7 @@
     <t>91,01%</t>
   </si>
   <si>
-    <t>58,73%</t>
+    <t>56,54%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -127,13 +127,13 @@
     <t>94,18%</t>
   </si>
   <si>
-    <t>75,31%</t>
+    <t>64,96%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>41,27%</t>
+    <t>43,46%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -142,7 +142,7 @@
     <t>5,82%</t>
   </si>
   <si>
-    <t>24,69%</t>
+    <t>35,04%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -172,43 +172,43 @@
     <t>96,06%</t>
   </si>
   <si>
-    <t>86,47%</t>
+    <t>86,72%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>89,26%</t>
+    <t>86,92%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>13,53%</t>
+    <t>13,28%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>10,74%</t>
+    <t>13,08%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -217,13 +217,13 @@
     <t>99,17%</t>
   </si>
   <si>
-    <t>95,8%</t>
+    <t>95,82%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>92,76%</t>
+    <t>93,06%</t>
   </si>
   <si>
     <t>99,18%</t>
@@ -232,16 +232,16 @@
     <t>97,93%</t>
   </si>
   <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>4,2%</t>
+    <t>4,18%</t>
   </si>
   <si>
     <t>2,96%</t>
@@ -250,70 +250,70 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>7,24%</t>
+    <t>6,94%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -370,13 +370,13 @@
     <t>94,74%</t>
   </si>
   <si>
-    <t>73,22%</t>
+    <t>72,71%</t>
   </si>
   <si>
     <t>97,43%</t>
   </si>
   <si>
-    <t>86,96%</t>
+    <t>87,44%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -385,13 +385,13 @@
     <t>5,26%</t>
   </si>
   <si>
-    <t>26,78%</t>
+    <t>27,29%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>13,04%</t>
+    <t>12,56%</t>
   </si>
   <si>
     <t>96,02%</t>
@@ -418,13 +418,13 @@
     <t>99,56%</t>
   </si>
   <si>
-    <t>97,8%</t>
+    <t>97,81%</t>
   </si>
   <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>98,86%</t>
+    <t>98,53%</t>
   </si>
   <si>
     <t>1,3%</t>
@@ -433,40 +433,40 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>2,2%</t>
+    <t>2,19%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>1,47%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>97,27%</t>
+    <t>97,84%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>0,84%</t>
+    <t>98,9%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>2,73%</t>
+    <t>2,16%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2015 (Tasa respuesta: 7,89%)</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>Porcentaje de mecicinas para la diabetes recetados en 2016 (Tasa respuesta: 7,89%)</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -484,7 +484,7 @@
     <t>96,28%</t>
   </si>
   <si>
-    <t>81,42%</t>
+    <t>78,65%</t>
   </si>
   <si>
     <t>90,51%</t>
@@ -493,13 +493,13 @@
     <t>97,64%</t>
   </si>
   <si>
-    <t>87,48%</t>
+    <t>88,63%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>18,58%</t>
+    <t>21,35%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -508,7 +508,7 @@
     <t>2,36%</t>
   </si>
   <si>
-    <t>12,52%</t>
+    <t>11,37%</t>
   </si>
   <si>
     <t>96,52%</t>
@@ -532,46 +532,64 @@
     <t>99,45%</t>
   </si>
   <si>
-    <t>97,19%</t>
+    <t>97,11%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
+    <t>96,48%</t>
+  </si>
+  <si>
     <t>99,37%</t>
   </si>
   <si>
+    <t>97,88%</t>
+  </si>
+  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>2,81%</t>
+    <t>2,89%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
+    <t>3,52%</t>
+  </si>
+  <si>
     <t>0,63%</t>
   </si>
   <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>97,6%</t>
+    <t>97,58%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>98,35%</t>
+    <t>98,24%</t>
   </si>
   <si>
     <t>99,83%</t>
   </si>
   <si>
+    <t>2,79%</t>
+  </si>
+  <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,4%</t>
+    <t>2,42%</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -580,7 +598,7 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,65%</t>
+    <t>1,76%</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9ADE26D-2369-4BAE-A329-8E70A7094A35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6C9BC0-ADEA-450D-9123-B96C8F9D7703}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2205,7 +2223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7346EEF-7AB3-46BA-903F-B262041749F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF854814-B19C-4353-AC21-622C0816E0E9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3262,7 +3280,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -3274,10 +3292,10 @@
         <v>297969</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -3289,10 +3307,10 @@
         <v>546173</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -3316,7 +3334,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3325,13 +3343,13 @@
         <v>2017</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -3340,13 +3358,13 @@
         <v>2017</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,7 +3442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F19B8FB-44D5-43F3-8F48-B735BF440A1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D45622-82A1-427D-BDF2-AFD3BD0F94F9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4335,7 +4353,7 @@
         <v>165</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -4347,10 +4365,10 @@
         <v>356357</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4368,13 +4386,13 @@
         <v>955</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4383,13 +4401,13 @@
         <v>1304</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4398,13 +4416,13 @@
         <v>2259</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,7 +4493,7 @@
         <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -4487,10 +4505,10 @@
         <v>272031</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -4502,13 +4520,13 @@
         <v>550032</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,7 +4547,7 @@
         <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -4538,13 +4556,13 @@
         <v>1304</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -4553,13 +4571,13 @@
         <v>3589</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B12-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{010E66EF-3377-46EB-8A82-6B9A762E8C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EB6310B-3A7B-4172-8266-D05799AEFA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{053EFEC0-7C78-4AC9-9E3E-96F41D208EFC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5D9ECEF6-37A7-4AA7-A3A9-52EFB58B600E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="187">
-  <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2007 (Tasa respuesta: 5,99%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="185">
+  <si>
+    <t>Porcentaje de medicinas para la diabetes recetados en 2007 (Tasa respuesta: 5,99%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -118,7 +118,7 @@
     <t>91,01%</t>
   </si>
   <si>
-    <t>56,54%</t>
+    <t>56,18%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -127,13 +127,13 @@
     <t>94,18%</t>
   </si>
   <si>
-    <t>64,96%</t>
+    <t>71,42%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>43,46%</t>
+    <t>43,82%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -142,7 +142,7 @@
     <t>5,82%</t>
   </si>
   <si>
-    <t>35,04%</t>
+    <t>28,58%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -172,43 +172,43 @@
     <t>96,06%</t>
   </si>
   <si>
-    <t>86,72%</t>
+    <t>87,87%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>86,92%</t>
+    <t>89,3%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>13,28%</t>
+    <t>12,13%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>13,08%</t>
+    <t>10,7%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -217,388 +217,382 @@
     <t>99,17%</t>
   </si>
   <si>
-    <t>95,82%</t>
+    <t>95,38%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>93,06%</t>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la diabetes recetados en 2012 (Tasa respuesta: 7,85%)</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la diabetes recetados en 2016 (Tasa respuesta: 7,89%)</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2012 (Tasa respuesta: 7,85%)</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2016 (Tasa respuesta: 7,89%)</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>2,56%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,76%</t>
+    <t>1,92%</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6C9BC0-ADEA-450D-9123-B96C8F9D7703}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A907E693-9AD6-4BC9-8E46-F16B35D2A8E7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2223,7 +2217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF854814-B19C-4353-AC21-622C0816E0E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3D8E83-1515-4E2E-A5D4-052D4F1E6E0C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3280,7 +3274,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -3334,7 +3328,7 @@
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3442,7 +3436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D45622-82A1-427D-BDF2-AFD3BD0F94F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F5E43B-74FB-4F25-9BED-92DE4F630DFF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4335,10 +4329,10 @@
         <v>171608</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -4350,10 +4344,10 @@
         <v>184749</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -4365,10 +4359,10 @@
         <v>356357</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4386,13 +4380,13 @@
         <v>955</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4401,13 +4395,13 @@
         <v>1304</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4416,13 +4410,13 @@
         <v>2259</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,10 +4484,10 @@
         <v>278002</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -4505,10 +4499,10 @@
         <v>272031</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -4520,13 +4514,13 @@
         <v>550032</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4535,13 @@
         <v>2284</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -4556,13 +4550,13 @@
         <v>1304</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -4571,13 +4565,13 @@
         <v>3589</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B12-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EB6310B-3A7B-4172-8266-D05799AEFA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB137798-24A2-45BE-9912-CC8BF5AAC2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5D9ECEF6-37A7-4AA7-A3A9-52EFB58B600E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CA53E586-AE3C-42FC-88E7-0FF4DDDFD7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="208">
   <si>
     <t>Porcentaje de medicinas para la diabetes recetados en 2007 (Tasa respuesta: 5,99%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -97,7 +97,7 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -112,7 +112,7 @@
     <t>44,41%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>91,01%</t>
@@ -145,7 +145,7 @@
     <t>28,58%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>91,73%</t>
@@ -166,7 +166,7 @@
     <t>4,66%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>96,06%</t>
@@ -211,249 +211,300 @@
     <t>7,96%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la diabetes recetados en 2012 (Tasa respuesta: 7,85%)</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para la diabetes recetados en 2012 (Tasa respuesta: 7,85%)</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
     <t>0,67%</t>
   </si>
   <si>
@@ -529,34 +580,52 @@
     <t>1,81%</t>
   </si>
   <si>
-    <t>97,27%</t>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>3,43%</t>
   </si>
   <si>
     <t>99,18%</t>
@@ -1004,8 +1073,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A907E693-9AD6-4BC9-8E46-F16B35D2A8E7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6441030-F11A-40F6-BC0A-B2926C50A27E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1891,49 +1960,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="D19" s="7">
-        <v>98149</v>
+        <v>56993</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <v>73</v>
+      </c>
+      <c r="I19" s="7">
+        <v>68420</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>130</v>
-      </c>
-      <c r="I19" s="7">
-        <v>134136</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="7">
+        <v>135</v>
+      </c>
+      <c r="N19" s="7">
+        <v>125412</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="7">
-        <v>235</v>
-      </c>
-      <c r="N19" s="7">
-        <v>232285</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,49 +2011,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>821</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1760</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1760</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>4088</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4909</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,10 +2062,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="D21" s="7">
-        <v>98970</v>
+        <v>56993</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -2008,10 +2077,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="I21" s="7">
-        <v>138224</v>
+        <v>70180</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -2023,10 +2092,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="N21" s="7">
-        <v>237194</v>
+        <v>127172</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -2040,55 +2109,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="D22" s="7">
-        <v>179348</v>
+        <v>41157</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="7">
+        <v>57</v>
+      </c>
+      <c r="I22" s="7">
+        <v>65717</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="7">
+        <v>100</v>
+      </c>
+      <c r="N22" s="7">
+        <v>106873</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="7">
-        <v>194</v>
-      </c>
-      <c r="I22" s="7">
-        <v>199089</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M22" s="7">
-        <v>381</v>
-      </c>
-      <c r="N22" s="7">
-        <v>378438</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,49 +2166,49 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>3680</v>
+        <v>821</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>5150</v>
+        <v>2328</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>8830</v>
+        <v>3149</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,63 +2217,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>44</v>
+      </c>
+      <c r="D24" s="7">
+        <v>41978</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>59</v>
+      </c>
+      <c r="I24" s="7">
+        <v>68045</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>103</v>
+      </c>
+      <c r="N24" s="7">
+        <v>110022</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>187</v>
+      </c>
+      <c r="D25" s="7">
+        <v>179348</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="7">
+        <v>194</v>
+      </c>
+      <c r="I25" s="7">
+        <v>199089</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" s="7">
+        <v>381</v>
+      </c>
+      <c r="N25" s="7">
+        <v>378438</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3680</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5</v>
+      </c>
+      <c r="I26" s="7">
+        <v>5150</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M26" s="7">
+        <v>9</v>
+      </c>
+      <c r="N26" s="7">
+        <v>8830</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>191</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>183028</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>199</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>204239</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>390</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>387268</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>92</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2217,8 +2442,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3D8E83-1515-4E2E-A5D4-052D4F1E6E0C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E6A71A-2372-4015-8C91-EA0F04793E85}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2234,7 +2459,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2374,7 +2599,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2428,7 +2653,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,7 +2724,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2514,7 +2739,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2529,7 +2754,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2553,7 +2778,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2568,7 +2793,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2583,7 +2808,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,7 +2879,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2669,7 +2894,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2684,7 +2909,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2708,7 +2933,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2723,7 +2948,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2738,7 +2963,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,7 +3034,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2821,10 +3046,10 @@
         <v>20376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2836,10 +3061,10 @@
         <v>42838</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -2863,7 +3088,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2872,13 +3097,13 @@
         <v>1131</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2887,13 +3112,13 @@
         <v>1131</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,7 +3189,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -2979,7 +3204,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -2994,7 +3219,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3018,7 +3243,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3033,7 +3258,7 @@
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3048,7 +3273,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,46 +3335,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D19" s="7">
-        <v>161574</v>
+        <v>89826</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="I19" s="7">
-        <v>202456</v>
+        <v>84055</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M19" s="7">
-        <v>338</v>
+        <v>164</v>
       </c>
       <c r="N19" s="7">
-        <v>364030</v>
+        <v>173880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3173,7 +3398,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3182,13 +3407,13 @@
         <v>886</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3197,13 +3422,13 @@
         <v>886</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,10 +3437,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D21" s="7">
-        <v>161574</v>
+        <v>89826</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -3227,10 +3452,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="I21" s="7">
-        <v>203342</v>
+        <v>84941</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -3242,10 +3467,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>339</v>
+        <v>165</v>
       </c>
       <c r="N21" s="7">
-        <v>364916</v>
+        <v>174766</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -3259,55 +3484,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>228</v>
+        <v>65</v>
       </c>
       <c r="D22" s="7">
-        <v>248204</v>
+        <v>71749</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="7">
-        <v>281</v>
+        <v>109</v>
       </c>
       <c r="I22" s="7">
-        <v>297969</v>
+        <v>118402</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M22" s="7">
-        <v>509</v>
+        <v>174</v>
       </c>
       <c r="N22" s="7">
-        <v>546173</v>
+        <v>190150</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,37 +3553,37 @@
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,63 +3592,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>65</v>
+      </c>
+      <c r="D24" s="7">
+        <v>71749</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>109</v>
+      </c>
+      <c r="I24" s="7">
+        <v>118402</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>174</v>
+      </c>
+      <c r="N24" s="7">
+        <v>190150</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
         <v>228</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="7">
         <v>248204</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="7">
+        <v>281</v>
+      </c>
+      <c r="I25" s="7">
+        <v>297969</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="7">
+        <v>509</v>
+      </c>
+      <c r="N25" s="7">
+        <v>546173</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2017</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>228</v>
+      </c>
+      <c r="D27" s="7">
+        <v>248204</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>283</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>299986</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>511</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>548190</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>92</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3436,8 +3817,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F5E43B-74FB-4F25-9BED-92DE4F630DFF}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54178A6D-5FB5-484F-840D-AC2E90C75FA1}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3453,7 +3834,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,7 +4123,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3796,7 +4177,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,7 +4248,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3882,7 +4263,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3897,7 +4278,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3921,7 +4302,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3936,7 +4317,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3951,7 +4332,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,10 +4400,10 @@
         <v>34364</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -4037,7 +4418,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4049,10 +4430,10 @@
         <v>55011</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -4070,13 +4451,13 @@
         <v>1329</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4091,7 +4472,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4100,13 +4481,13 @@
         <v>1329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,7 +4558,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4192,7 +4573,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4207,7 +4588,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4231,7 +4612,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4246,7 +4627,7 @@
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4261,7 +4642,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,46 +4704,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>85</v>
+      </c>
+      <c r="D19" s="7">
+        <v>88527</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="7">
+        <v>78</v>
+      </c>
+      <c r="I19" s="7">
+        <v>82621</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D19" s="7">
-        <v>171608</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="7">
         <v>163</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>155</v>
-      </c>
-      <c r="I19" s="7">
-        <v>184749</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="7">
-        <v>337</v>
-      </c>
       <c r="N19" s="7">
-        <v>356357</v>
+        <v>171147</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -4380,43 +4761,43 @@
         <v>955</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M20" s="7">
         <v>1</v>
       </c>
-      <c r="I20" s="7">
-        <v>1304</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
       <c r="N20" s="7">
-        <v>2259</v>
+        <v>955</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,10 +4806,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="D21" s="7">
-        <v>172563</v>
+        <v>89482</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -4440,10 +4821,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="I21" s="7">
-        <v>186053</v>
+        <v>82621</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -4455,10 +4836,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>339</v>
+        <v>164</v>
       </c>
       <c r="N21" s="7">
-        <v>358616</v>
+        <v>172102</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -4472,55 +4853,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>279</v>
+        <v>97</v>
       </c>
       <c r="D22" s="7">
-        <v>278002</v>
+        <v>83082</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="7">
+        <v>77</v>
+      </c>
+      <c r="I22" s="7">
+        <v>102128</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="7">
         <v>174</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="7">
-        <v>236</v>
-      </c>
-      <c r="I22" s="7">
-        <v>272031</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="7">
-        <v>515</v>
-      </c>
       <c r="N22" s="7">
-        <v>550032</v>
+        <v>185210</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,19 +4910,19 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>2284</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -4550,28 +4931,28 @@
         <v>1304</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>3589</v>
+        <v>1304</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,63 +4961,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>97</v>
+      </c>
+      <c r="D24" s="7">
+        <v>83082</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>78</v>
+      </c>
+      <c r="I24" s="7">
+        <v>103432</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>175</v>
+      </c>
+      <c r="N24" s="7">
+        <v>186514</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>279</v>
+      </c>
+      <c r="D25" s="7">
+        <v>278002</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>236</v>
+      </c>
+      <c r="I25" s="7">
+        <v>272031</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="7">
+        <v>515</v>
+      </c>
+      <c r="N25" s="7">
+        <v>550032</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2284</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1304</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3589</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>281</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>280286</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>237</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>273335</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>518</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>553621</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>92</v>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
